--- a/main/project/gantt/Traviary 프로젝트 간트차트.xlsx
+++ b/main/project/gantt/Traviary 프로젝트 간트차트.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2a6bd80619e8ec70/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITSW\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{975D8D95-BCCB-4418-A5E5-9D4078D2FFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C66BFB9-FFF3-4232-8612-985FE22E3EB0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{A69CF38A-1089-44CA-9EE3-D45051AE86B7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Traviary 개발 계획</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9주차 (4/29)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,13 +86,101 @@
   </si>
   <si>
     <t>초기 프로젝트 계획서 및 요구사항, 간트차트 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부 간트차트 시간 계획 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사전 계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10주차 (5/13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Firebase DB 확보 및 테스트, 폴더 구조 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 첨부 기능, 리스트화 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 임시 저장, 수정/삭제 기능 및 DB 연동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11주차 (5/20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 중반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 및 검색 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각종 API 임포트 및 백업 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12주차 (5/27)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행일지 공유 기능과 설정 (테마 변경 제외) 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 후반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발 초반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테마 설정 및 대표적 버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행 준비 및 최종 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0pr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 UI 설계, 로그인, 일정 추가 버튼 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13주차 (6/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(선택, 필요시에만) 스토어 배포 시도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마무리 작업 (최종 버그수정, 사후 계획, 발표 PPT)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,8 +247,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -212,26 +313,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -256,14 +344,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -315,6 +409,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
       <color rgb="FF008000"/>
       <color rgb="FF800000"/>
     </mruColors>
@@ -650,11 +745,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD39929-D976-4990-BFB5-CCC543467167}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -701,7 +796,7 @@
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
@@ -713,11 +808,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
+      <c r="B3" s="4">
+        <v>0.01</v>
       </c>
       <c r="C3" s="5">
         <v>45779</v>
@@ -730,534 +825,442 @@
         <v>45780</v>
       </c>
       <c r="F3" s="6">
-        <f>E3-D3</f>
+        <f t="shared" ref="F3:F32" si="0">E3-D3</f>
         <v>-1</v>
       </c>
-      <c r="G3" s="9"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45779</v>
+      </c>
+      <c r="D4" s="5">
+        <f>C4+2</f>
+        <v>45781</v>
+      </c>
+      <c r="E4" s="5">
+        <v>45790</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6">
-        <f>E4-D4</f>
+    <row r="5" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45790</v>
+      </c>
+      <c r="D5" s="5">
+        <f>C5+7</f>
+        <v>45797</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45797</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6">
-        <f>E5-D5</f>
+      <c r="G5" s="12"/>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45791</v>
+      </c>
+      <c r="D6" s="5">
+        <f>C6+7</f>
+        <v>45798</v>
+      </c>
+      <c r="E6" s="5">
+        <v>45798</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="6">
-        <f>E6-D6</f>
+      <c r="G6" s="12"/>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45791</v>
+      </c>
+      <c r="D7" s="5">
+        <f>C7+7</f>
+        <v>45798</v>
+      </c>
+      <c r="E7" s="5">
+        <v>45798</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="6">
-        <f>E7-D7</f>
+      <c r="G7" s="12"/>
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45792</v>
+      </c>
+      <c r="D8" s="5">
+        <f>C8+7</f>
+        <v>45799</v>
+      </c>
+      <c r="E8" s="5">
+        <v>45799</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="6">
-        <f>E8-D8</f>
+      <c r="G8" s="12"/>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45794</v>
+      </c>
+      <c r="D9" s="5">
+        <f>C9+7</f>
+        <v>45801</v>
+      </c>
+      <c r="E9" s="5">
+        <v>45801</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="6">
-        <f>E9-D9</f>
+      <c r="G9" s="12"/>
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>45796</v>
+      </c>
+      <c r="D10" s="5">
+        <f>C10+7</f>
+        <v>45803</v>
+      </c>
+      <c r="E10" s="5">
+        <v>45803</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="6">
-        <f>E10-D10</f>
+      <c r="G10" s="12"/>
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C11" s="5">
+        <v>45799</v>
+      </c>
+      <c r="D11" s="5">
+        <f>C11+7</f>
+        <v>45806</v>
+      </c>
+      <c r="E11" s="5">
+        <v>45806</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="6">
-        <f>E11-D11</f>
+      <c r="G11" s="12"/>
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="C12" s="5">
+        <v>45800</v>
+      </c>
+      <c r="D12" s="5">
+        <f>C12+7</f>
+        <v>45807</v>
+      </c>
+      <c r="E12" s="5">
+        <v>45807</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="6">
-        <f>E12-D12</f>
+      <c r="G12" s="12"/>
+      <c r="H12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5">
+        <v>45804</v>
+      </c>
+      <c r="D13" s="5">
+        <f>C13+7</f>
+        <v>45811</v>
+      </c>
+      <c r="E13" s="5">
+        <v>45811</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="6">
-        <f>E13-D13</f>
+      <c r="G13" s="12"/>
+      <c r="H13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="C14" s="5">
+        <v>45807</v>
+      </c>
+      <c r="D14" s="5">
+        <f>C14+7</f>
+        <v>45814</v>
+      </c>
+      <c r="E14" s="5">
+        <v>45814</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="6">
-        <f>E14-D14</f>
+      <c r="G14" s="12"/>
+      <c r="H14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C15" s="5">
+        <v>45809</v>
+      </c>
+      <c r="D15" s="5">
+        <f>C15+7</f>
+        <v>45816</v>
+      </c>
+      <c r="E15" s="5">
+        <v>45816</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="6">
-        <f>E15-D15</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="6">
-        <f>E16-D16</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="6">
-        <f>E17-D17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="6">
-        <f>E18-D18</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="6">
-        <f>E19-D19</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="6">
-        <f>E20-D20</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="6">
-        <f>E21-D21</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="6">
-        <f>E22-D22</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="6">
-        <f>E23-D23</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="6">
-        <f>E24-D24</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="6">
-        <f>E25-D25</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="6">
-        <f>E26-D26</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="6">
-        <f>E27-D27</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="6">
-        <f>E28-D28</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="6">
-        <f>E29-D29</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="G15" s="12"/>
+      <c r="H15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="6">
-        <f>E30-D30</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="6">
-        <f>E31-D31</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="6">
-        <f>E32-D32</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="10"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
+      <c r="J15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="25.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="G2:G32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F3:F32">
+  <conditionalFormatting sqref="F3:F15">
     <cfRule type="expression" dxfId="2" priority="6">
       <formula>$E3-$D3 &lt;= 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F32">
+  <conditionalFormatting sqref="F3:F15">
     <cfRule type="expression" dxfId="1" priority="5">
       <formula>$E3-$D3 &gt; 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F32">
+  <conditionalFormatting sqref="F3:F15">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR($D3="", $E3="")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>